--- a/model/results/mix2_ggpos_h2pos/v_emissions.xlsx
+++ b/model/results/mix2_ggpos_h2pos/v_emissions.xlsx
@@ -790,10 +790,10 @@
         <v>2776335.897435897</v>
       </c>
       <c r="E3" t="n">
-        <v>849791.0256410255</v>
+        <v>816538.3333333334</v>
       </c>
       <c r="F3" t="n">
-        <v>816538.3333333323</v>
+        <v>849791.0256410256</v>
       </c>
       <c r="G3" t="n">
         <v>65600</v>
@@ -921,10 +921,10 @@
         <v>2776335.897435897</v>
       </c>
       <c r="E4" t="n">
-        <v>849791.0256410255</v>
+        <v>816538.3333333334</v>
       </c>
       <c r="F4" t="n">
-        <v>816538.3333333323</v>
+        <v>849791.0256410256</v>
       </c>
       <c r="G4" t="n">
         <v>65600</v>
@@ -1052,10 +1052,10 @@
         <v>2776335.897435897</v>
       </c>
       <c r="E5" t="n">
-        <v>849791.0256410255</v>
+        <v>816538.3333333334</v>
       </c>
       <c r="F5" t="n">
-        <v>816538.3333333323</v>
+        <v>849791.0256410256</v>
       </c>
       <c r="G5" t="n">
         <v>65600</v>
@@ -1139,7 +1139,7 @@
         <v>296400</v>
       </c>
       <c r="AH5" t="n">
-        <v>197600</v>
+        <v>197600.0000000004</v>
       </c>
       <c r="AI5" t="n">
         <v>167960</v>
@@ -1174,19 +1174,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
+        <v>2776335.897435897</v>
+      </c>
+      <c r="C6" t="n">
         <v>1520949.23076923</v>
       </c>
-      <c r="C6" t="n">
-        <v>2776335.897435897</v>
-      </c>
       <c r="D6" t="n">
-        <v>1669461.078098479</v>
+        <v>2053714.41143181</v>
       </c>
       <c r="E6" t="n">
+        <v>240158.3333333333</v>
+      </c>
+      <c r="F6" t="n">
         <v>465537.6923076921</v>
-      </c>
-      <c r="F6" t="n">
-        <v>624411.6666666657</v>
       </c>
       <c r="G6" t="n">
         <v>65600</v>
@@ -1305,19 +1305,19 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>1520949.23076923</v>
+        <v>1520949.230769212</v>
       </c>
       <c r="C7" t="n">
-        <v>2106298.201108697</v>
+        <v>265562.5641025636</v>
       </c>
       <c r="D7" t="n">
-        <v>265562.5641025823</v>
+        <v>1520949.230769231</v>
       </c>
       <c r="E7" t="n">
-        <v>465537.6923076921</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>624411.6666666657</v>
+        <v>465537.6923076874</v>
       </c>
       <c r="G7" t="n">
         <v>65600</v>
@@ -1436,19 +1436,19 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>1520949.23076923</v>
+        <v>1520949.230769212</v>
       </c>
       <c r="C8" t="n">
-        <v>2106298.201108697</v>
+        <v>265562.5641025636</v>
       </c>
       <c r="D8" t="n">
-        <v>265562.5641025823</v>
+        <v>265562.5641025638</v>
       </c>
       <c r="E8" t="n">
-        <v>81284.35897435877</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>624411.6666666657</v>
+        <v>465537.6923076874</v>
       </c>
       <c r="G8" t="n">
         <v>65600</v>
@@ -1567,19 +1567,19 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>265562.5641025637</v>
+        <v>1520949.230769212</v>
       </c>
       <c r="C9" t="n">
-        <v>1520949.23076923</v>
+        <v>265562.5641025636</v>
       </c>
       <c r="D9" t="n">
-        <v>265562.5641025823</v>
+        <v>265562.5641025638</v>
       </c>
       <c r="E9" t="n">
-        <v>81284.35897435561</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>240158.3333333322</v>
+        <v>81284.35897435401</v>
       </c>
       <c r="G9" t="n">
         <v>65600</v>
@@ -1603,16 +1603,16 @@
         <v>1598.999999999997</v>
       </c>
       <c r="N9" t="n">
-        <v>1106.999999999998</v>
+        <v>1106.999999999436</v>
       </c>
       <c r="O9" t="n">
-        <v>5534.999999999965</v>
+        <v>5534.99999999999</v>
       </c>
       <c r="P9" t="n">
         <v>9839.999999999982</v>
       </c>
       <c r="Q9" t="n">
-        <v>3689.999999999977</v>
+        <v>3689.999999999993</v>
       </c>
       <c r="R9" t="n">
         <v>1229.999999999998</v>
@@ -1621,7 +1621,7 @@
         <v>6395.999999999988</v>
       </c>
       <c r="T9" t="n">
-        <v>122.9999999999998</v>
+        <v>122.9999999999617</v>
       </c>
       <c r="U9" t="n">
         <v>3320.999999999994</v>
@@ -1651,13 +1651,13 @@
         <v>1475.999999999997</v>
       </c>
       <c r="AD9" t="n">
-        <v>368.9999999999993</v>
+        <v>368.9999999998852</v>
       </c>
       <c r="AE9" t="n">
-        <v>3320.999999999979</v>
+        <v>3320.999999999994</v>
       </c>
       <c r="AF9" t="n">
-        <v>737.9999999999953</v>
+        <v>737.9999999999986</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1698,19 +1698,19 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
+        <v>265562.5641025412</v>
+      </c>
+      <c r="C10" t="n">
+        <v>265562.5641025636</v>
+      </c>
+      <c r="D10" t="n">
         <v>265562.5641025638</v>
       </c>
-      <c r="C10" t="n">
-        <v>265562.5641025637</v>
-      </c>
-      <c r="D10" t="n">
-        <v>265562.5641025823</v>
-      </c>
       <c r="E10" t="n">
-        <v>81284.35897435561</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>240158.3333333322</v>
+        <v>81284.35897435401</v>
       </c>
       <c r="G10" t="n">
         <v>65600</v>
@@ -1734,16 +1734,16 @@
         <v>1065.999999999998</v>
       </c>
       <c r="N10" t="n">
-        <v>737.9999999999986</v>
+        <v>737.9999999994366</v>
       </c>
       <c r="O10" t="n">
-        <v>3689.999999999968</v>
+        <v>3689.999999999993</v>
       </c>
       <c r="P10" t="n">
         <v>6559.999999999988</v>
       </c>
       <c r="Q10" t="n">
-        <v>2459.999999999979</v>
+        <v>2459.999999999995</v>
       </c>
       <c r="R10" t="n">
         <v>819.9999999999985</v>
@@ -1752,7 +1752,7 @@
         <v>4263.999999999992</v>
       </c>
       <c r="T10" t="n">
-        <v>81.99999999999986</v>
+        <v>81.99999999996183</v>
       </c>
       <c r="U10" t="n">
         <v>2213.999999999996</v>
@@ -1782,13 +1782,13 @@
         <v>983.9999999999982</v>
       </c>
       <c r="AD10" t="n">
-        <v>245.9999999999995</v>
+        <v>245.9999999998855</v>
       </c>
       <c r="AE10" t="n">
-        <v>2213.999999999981</v>
+        <v>2213.999999999996</v>
       </c>
       <c r="AF10" t="n">
-        <v>491.9999999999958</v>
+        <v>491.9999999999991</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -1829,19 +1829,19 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
+        <v>265562.5641025451</v>
+      </c>
+      <c r="C11" t="n">
+        <v>265562.5641025635</v>
+      </c>
+      <c r="D11" t="n">
         <v>265562.5641025637</v>
       </c>
-      <c r="C11" t="n">
-        <v>265562.5641025637</v>
-      </c>
-      <c r="D11" t="n">
-        <v>265562.5641025915</v>
-      </c>
       <c r="E11" t="n">
-        <v>81284.35897435561</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>240158.3333333332</v>
+        <v>81284.35897435389</v>
       </c>
       <c r="G11" t="n">
         <v>65600</v>
@@ -1960,19 +1960,19 @@
         <v>2031</v>
       </c>
       <c r="B12" t="n">
+        <v>265562.5641025447</v>
+      </c>
+      <c r="C12" t="n">
         <v>265562.5641025637</v>
       </c>
-      <c r="C12" t="n">
-        <v>265562.5641025634</v>
-      </c>
       <c r="D12" t="n">
-        <v>265562.564102558</v>
+        <v>265562.5641025637</v>
       </c>
       <c r="E12" t="n">
-        <v>81284.35897435561</v>
+        <v>240158.3333333332</v>
       </c>
       <c r="F12" t="n">
-        <v>240158.3333333332</v>
+        <v>81284.35897435305</v>
       </c>
       <c r="G12" t="n">
         <v>65600</v>
@@ -2091,19 +2091,19 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>265562.5641025637</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="C13" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025635</v>
       </c>
       <c r="D13" t="n">
-        <v>265562.5641025578</v>
+        <v>265562.5641025635</v>
       </c>
       <c r="E13" t="n">
-        <v>81284.35897435561</v>
+        <v>240158.333333328</v>
       </c>
       <c r="F13" t="n">
-        <v>240158.3333333294</v>
+        <v>81284.35897435389</v>
       </c>
       <c r="G13" t="n">
         <v>65600</v>
@@ -2222,19 +2222,19 @@
         <v>2033</v>
       </c>
       <c r="B14" t="n">
+        <v>265562.5641025634</v>
+      </c>
+      <c r="C14" t="n">
         <v>265562.5641025637</v>
       </c>
-      <c r="C14" t="n">
-        <v>265562.5641025634</v>
-      </c>
       <c r="D14" t="n">
-        <v>265562.5641025584</v>
+        <v>265562.5641025638</v>
       </c>
       <c r="E14" t="n">
-        <v>81284.35897435561</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>240158.3333333294</v>
+        <v>81284.35897435878</v>
       </c>
       <c r="G14" t="n">
         <v>65600</v>
@@ -2353,19 +2353,19 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>265562.5641025625</v>
+        <v>265562.5641025637</v>
       </c>
       <c r="C15" t="n">
-        <v>265562.5641025624</v>
+        <v>265562.5641025637</v>
       </c>
       <c r="D15" t="n">
-        <v>265562.5641025589</v>
+        <v>265562.564102545</v>
       </c>
       <c r="E15" t="n">
-        <v>81284.35897435561</v>
+        <v>240158.3333333333</v>
       </c>
       <c r="F15" t="n">
-        <v>240158.3333333332</v>
+        <v>81284.35897435305</v>
       </c>
       <c r="G15" t="n">
         <v>65600</v>
@@ -2484,19 +2484,19 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>265562.5641025638</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="C16" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025449</v>
       </c>
       <c r="D16" t="n">
-        <v>265562.5641025633</v>
+        <v>265562.5641025635</v>
       </c>
       <c r="E16" t="n">
-        <v>81284.35897435591</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>81284.35897435305</v>
       </c>
       <c r="G16" t="n">
         <v>65600</v>
@@ -2615,19 +2615,19 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025449</v>
       </c>
       <c r="C17" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025635</v>
       </c>
       <c r="D17" t="n">
-        <v>265562.5641025558</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="E17" t="n">
-        <v>81284.35897435591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>81284.35897435305</v>
       </c>
       <c r="G17" t="n">
         <v>65600</v>
@@ -2746,19 +2746,19 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025449</v>
       </c>
       <c r="C18" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="D18" t="n">
-        <v>265562.5641025633</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="E18" t="n">
-        <v>81284.35897435561</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>81284.35897435309</v>
       </c>
       <c r="G18" t="n">
         <v>65600</v>
@@ -2877,19 +2877,19 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>265562.5641025637</v>
+        <v>265562.5641025449</v>
       </c>
       <c r="C19" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025449</v>
       </c>
       <c r="D19" t="n">
-        <v>265562.5641025546</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="E19" t="n">
-        <v>81284.35897435596</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>81284.35897435878</v>
       </c>
       <c r="G19" t="n">
         <v>65600</v>
@@ -3011,16 +3011,16 @@
         <v>265562.5641025637</v>
       </c>
       <c r="C20" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="D20" t="n">
-        <v>265562.5641025638</v>
+        <v>265562.5641025635</v>
       </c>
       <c r="E20" t="n">
-        <v>81284.35897435504</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>81284.35897435305</v>
       </c>
       <c r="G20" t="n">
         <v>65600</v>
@@ -3139,19 +3139,19 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>265562.5641025539</v>
+        <v>265562.5641025447</v>
       </c>
       <c r="C21" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025449</v>
       </c>
       <c r="D21" t="n">
-        <v>265562.5641025539</v>
+        <v>265562.5641025638</v>
       </c>
       <c r="E21" t="n">
-        <v>81284.35897435591</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>81284.35897435309</v>
       </c>
       <c r="G21" t="n">
         <v>65600</v>
